--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H2">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I2">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J2">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.49790693918736</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N2">
-        <v>3.49790693918736</v>
+        <v>11.65372</v>
       </c>
       <c r="O2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q2">
-        <v>59.02000472294662</v>
+        <v>69.18362953493333</v>
       </c>
       <c r="R2">
-        <v>59.02000472294662</v>
+        <v>622.6526658143999</v>
       </c>
       <c r="S2">
-        <v>0.06772867739011333</v>
+        <v>0.07236836732699164</v>
       </c>
       <c r="T2">
-        <v>0.06772867739011333</v>
+        <v>0.07236836732699166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H3">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I3">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J3">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.61940000434991</v>
+        <v>6.662909</v>
       </c>
       <c r="N3">
-        <v>6.61940000434991</v>
+        <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q3">
-        <v>111.6887974185406</v>
+        <v>118.66534322456</v>
       </c>
       <c r="R3">
-        <v>111.6887974185406</v>
+        <v>1067.98808902104</v>
       </c>
       <c r="S3">
-        <v>0.1281689922588064</v>
+        <v>0.1241278783028042</v>
       </c>
       <c r="T3">
-        <v>0.1281689922588064</v>
+        <v>0.1241278783028043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H4">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I4">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J4">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.105794767457187</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N4">
-        <v>0.105794767457187</v>
+        <v>0.14758</v>
       </c>
       <c r="O4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q4">
-        <v>1.785069695546799</v>
+        <v>0.8761253957333331</v>
       </c>
       <c r="R4">
-        <v>1.785069695546799</v>
+        <v>7.885128561599999</v>
       </c>
       <c r="S4">
-        <v>0.002048464924665647</v>
+        <v>0.0009164561745191601</v>
       </c>
       <c r="T4">
-        <v>0.002048464924665647</v>
+        <v>0.0009164561745191603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8729488088263</v>
+        <v>17.80984</v>
       </c>
       <c r="H5">
-        <v>16.8729488088263</v>
+        <v>53.42952</v>
       </c>
       <c r="I5">
-        <v>0.7694145680446576</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J5">
-        <v>0.7694145680446576</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.5139884018581</v>
+        <v>0.106491</v>
       </c>
       <c r="N5">
-        <v>29.5139884018581</v>
+        <v>0.319473</v>
       </c>
       <c r="O5">
-        <v>0.7427314963938968</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P5">
-        <v>0.7427314963938968</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q5">
-        <v>497.9880154488449</v>
+        <v>1.89658767144</v>
       </c>
       <c r="R5">
-        <v>497.9880154488449</v>
+        <v>17.06928904296</v>
       </c>
       <c r="S5">
-        <v>0.5714684334710722</v>
+        <v>0.001983893504825584</v>
       </c>
       <c r="T5">
-        <v>0.5714684334710722</v>
+        <v>0.001983893504825585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.685112640191931</v>
+        <v>17.80984</v>
       </c>
       <c r="H6">
-        <v>0.685112640191931</v>
+        <v>53.42952</v>
       </c>
       <c r="I6">
-        <v>0.03124146538271146</v>
+        <v>0.765729102759791</v>
       </c>
       <c r="J6">
-        <v>0.03124146538271146</v>
+        <v>0.7657291027597911</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.49790693918736</v>
+        <v>30.399472</v>
       </c>
       <c r="N6">
-        <v>3.49790693918736</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O6">
-        <v>0.08802624775124129</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P6">
-        <v>0.08802624775124129</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q6">
-        <v>2.396460258252328</v>
+        <v>541.40973240448</v>
       </c>
       <c r="R6">
-        <v>2.396460258252328</v>
+        <v>4872.687591640321</v>
       </c>
       <c r="S6">
-        <v>0.002750068971890387</v>
+        <v>0.5663325074506503</v>
       </c>
       <c r="T6">
-        <v>0.002750068971890387</v>
+        <v>0.5663325074506504</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H7">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I7">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J7">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.61940000434991</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N7">
-        <v>6.61940000434991</v>
+        <v>11.65372</v>
       </c>
       <c r="O7">
-        <v>0.1665798875949634</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P7">
-        <v>0.1665798875949634</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q7">
-        <v>4.535034613466647</v>
+        <v>2.873579457031111</v>
       </c>
       <c r="R7">
-        <v>4.535034613466647</v>
+        <v>25.86221511327999</v>
       </c>
       <c r="S7">
-        <v>0.005204199791754015</v>
+        <v>0.00300585926306049</v>
       </c>
       <c r="T7">
-        <v>0.005204199791754015</v>
+        <v>0.00300585926306049</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H8">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I8">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J8">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.105794767457187</v>
+        <v>6.662909</v>
       </c>
       <c r="N8">
-        <v>0.105794767457187</v>
+        <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.002662368259898546</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P8">
-        <v>0.002662368259898546</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q8">
-        <v>0.07248133245108476</v>
+        <v>4.928829187538666</v>
       </c>
       <c r="R8">
-        <v>0.07248133245108476</v>
+        <v>44.35946268784799</v>
       </c>
       <c r="S8">
-        <v>8.317628582765018E-05</v>
+        <v>0.005155718535346423</v>
       </c>
       <c r="T8">
-        <v>8.317628582765018E-05</v>
+        <v>0.005155718535346424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.685112640191931</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H9">
-        <v>0.685112640191931</v>
+        <v>2.219224</v>
       </c>
       <c r="I9">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J9">
-        <v>0.03124146538271146</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>29.5139884018581</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N9">
-        <v>29.5139884018581</v>
+        <v>0.14758</v>
       </c>
       <c r="O9">
-        <v>0.7427314963938968</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P9">
-        <v>0.7427314963938968</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q9">
-        <v>20.22040651659103</v>
+        <v>0.03639034199111111</v>
       </c>
       <c r="R9">
-        <v>20.22040651659103</v>
+        <v>0.3275130779199999</v>
       </c>
       <c r="S9">
-        <v>0.02320402033323941</v>
+        <v>3.806550269291411E-05</v>
       </c>
       <c r="T9">
-        <v>0.02320402033323941</v>
+        <v>3.806550269291411E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.00378355083643</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H10">
-        <v>1.00378355083643</v>
+        <v>2.219224</v>
       </c>
       <c r="I10">
-        <v>0.0457730119333461</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J10">
-        <v>0.0457730119333461</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.49790693918736</v>
+        <v>0.106491</v>
       </c>
       <c r="N10">
-        <v>3.49790693918736</v>
+        <v>0.319473</v>
       </c>
       <c r="O10">
-        <v>0.08802624775124129</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P10">
-        <v>0.08802624775124129</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q10">
-        <v>3.511141447912876</v>
+        <v>0.078775794328</v>
       </c>
       <c r="R10">
-        <v>3.511141447912876</v>
+        <v>0.7089821489519998</v>
       </c>
       <c r="S10">
-        <v>0.004029226488765248</v>
+        <v>8.240208931978149E-05</v>
       </c>
       <c r="T10">
-        <v>0.004029226488765248</v>
+        <v>8.24020893197815E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.00378355083643</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H11">
-        <v>1.00378355083643</v>
+        <v>2.219224</v>
       </c>
       <c r="I11">
-        <v>0.0457730119333461</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="J11">
-        <v>0.0457730119333461</v>
+        <v>0.0318049722764306</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.61940000434991</v>
+        <v>30.399472</v>
       </c>
       <c r="N11">
-        <v>6.61940000434991</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O11">
-        <v>0.1665798875949634</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P11">
-        <v>0.1665798875949634</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q11">
-        <v>6.644444840773033</v>
+        <v>22.48774594990933</v>
       </c>
       <c r="R11">
-        <v>6.644444840773033</v>
+        <v>202.389713549184</v>
       </c>
       <c r="S11">
-        <v>0.007624863182739712</v>
+        <v>0.02352292688601099</v>
       </c>
       <c r="T11">
-        <v>0.007624863182739712</v>
+        <v>0.02352292688601099</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H12">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I12">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J12">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.105794767457187</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N12">
-        <v>0.105794767457187</v>
+        <v>11.65372</v>
       </c>
       <c r="O12">
-        <v>0.002662368259898546</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P12">
-        <v>0.002662368259898546</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q12">
-        <v>0.1061950473380895</v>
+        <v>4.010011385697777</v>
       </c>
       <c r="R12">
-        <v>0.1061950473380895</v>
+        <v>36.09010247128</v>
       </c>
       <c r="S12">
-        <v>0.0001218646141312981</v>
+        <v>0.004194604690392314</v>
       </c>
       <c r="T12">
-        <v>0.0001218646141312981</v>
+        <v>0.004194604690392314</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.00378355083643</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H13">
-        <v>1.00378355083643</v>
+        <v>3.096874</v>
       </c>
       <c r="I13">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J13">
-        <v>0.0457730119333461</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.5139884018581</v>
+        <v>6.662909</v>
       </c>
       <c r="N13">
-        <v>29.5139884018581</v>
+        <v>19.988727</v>
       </c>
       <c r="O13">
-        <v>0.7427314963938968</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P13">
-        <v>0.7427314963938968</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q13">
-        <v>29.62565607736233</v>
+        <v>6.878063215488666</v>
       </c>
       <c r="R13">
-        <v>29.62565607736233</v>
+        <v>61.90256893939799</v>
       </c>
       <c r="S13">
-        <v>0.03399705764770985</v>
+        <v>0.007194681872326732</v>
       </c>
       <c r="T13">
-        <v>0.03399705764770985</v>
+        <v>0.007194681872326733</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.01807393907513</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H14">
-        <v>2.01807393907513</v>
+        <v>3.096874</v>
       </c>
       <c r="I14">
-        <v>0.09202514069760172</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J14">
-        <v>0.09202514069760172</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.49790693918736</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N14">
-        <v>3.49790693918736</v>
+        <v>0.14758</v>
       </c>
       <c r="O14">
-        <v>0.08802624775124129</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P14">
-        <v>0.08802624775124129</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q14">
-        <v>7.059034835284066</v>
+        <v>0.05078185165777777</v>
       </c>
       <c r="R14">
-        <v>7.059034835284066</v>
+        <v>0.4570366649199999</v>
       </c>
       <c r="S14">
-        <v>0.008100627834389926</v>
+        <v>5.311949834113893E-05</v>
       </c>
       <c r="T14">
-        <v>0.008100627834389926</v>
+        <v>5.311949834113893E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.01807393907513</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H15">
-        <v>2.01807393907513</v>
+        <v>3.096874</v>
       </c>
       <c r="I15">
-        <v>0.09202514069760172</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J15">
-        <v>0.09202514069760172</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.61940000434991</v>
+        <v>0.106491</v>
       </c>
       <c r="N15">
-        <v>6.61940000434991</v>
+        <v>0.319473</v>
       </c>
       <c r="O15">
-        <v>0.1665798875949634</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P15">
-        <v>0.1665798875949634</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q15">
-        <v>13.35843864109236</v>
+        <v>0.109929736378</v>
       </c>
       <c r="R15">
-        <v>13.35843864109236</v>
+        <v>0.9893676274019999</v>
       </c>
       <c r="S15">
-        <v>0.01532953759331719</v>
+        <v>0.000114990144284718</v>
       </c>
       <c r="T15">
-        <v>0.01532953759331719</v>
+        <v>0.000114990144284718</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.01807393907513</v>
+        <v>1.032291333333333</v>
       </c>
       <c r="H16">
-        <v>2.01807393907513</v>
+        <v>3.096874</v>
       </c>
       <c r="I16">
-        <v>0.09202514069760172</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="J16">
-        <v>0.09202514069760172</v>
+        <v>0.0443830779198489</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.105794767457187</v>
+        <v>30.399472</v>
       </c>
       <c r="N16">
-        <v>0.105794767457187</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O16">
-        <v>0.002662368259898546</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P16">
-        <v>0.002662368259898546</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q16">
-        <v>0.2135016630958627</v>
+        <v>31.38111148350933</v>
       </c>
       <c r="R16">
-        <v>0.2135016630958627</v>
+        <v>282.430003351584</v>
       </c>
       <c r="S16">
-        <v>0.0002450048137059928</v>
+        <v>0.03282568171450399</v>
       </c>
       <c r="T16">
-        <v>0.0002450048137059928</v>
+        <v>0.032825681714504</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.01807393907513</v>
+        <v>2.164416</v>
       </c>
       <c r="H17">
-        <v>2.01807393907513</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I17">
-        <v>0.09202514069760172</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J17">
-        <v>0.09202514069760172</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.5139884018581</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N17">
-        <v>29.5139884018581</v>
+        <v>11.65372</v>
       </c>
       <c r="O17">
-        <v>0.7427314963938968</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P17">
-        <v>0.7427314963938968</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q17">
-        <v>59.56141083195547</v>
+        <v>8.407832675839998</v>
       </c>
       <c r="R17">
-        <v>59.56141083195547</v>
+        <v>75.67049408256</v>
       </c>
       <c r="S17">
-        <v>0.06834997045618861</v>
+        <v>0.008794871382135827</v>
       </c>
       <c r="T17">
-        <v>0.06834997045618861</v>
+        <v>0.008794871382135829</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.34967468925711</v>
+        <v>2.164416</v>
       </c>
       <c r="H18">
-        <v>1.34967468925711</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I18">
-        <v>0.06154581394168308</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J18">
-        <v>0.06154581394168308</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.49790693918736</v>
+        <v>6.662909</v>
       </c>
       <c r="N18">
-        <v>3.49790693918736</v>
+        <v>19.988727</v>
       </c>
       <c r="O18">
-        <v>0.08802624775124129</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P18">
-        <v>0.08802624775124129</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q18">
-        <v>4.721036461197989</v>
+        <v>14.421306846144</v>
       </c>
       <c r="R18">
-        <v>4.721036461197989</v>
+        <v>129.791761615296</v>
       </c>
       <c r="S18">
-        <v>0.005417647066082396</v>
+        <v>0.01508516448461313</v>
       </c>
       <c r="T18">
-        <v>0.005417647066082396</v>
+        <v>0.01508516448461314</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.34967468925711</v>
+        <v>2.164416</v>
       </c>
       <c r="H19">
-        <v>1.34967468925711</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I19">
-        <v>0.06154581394168308</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J19">
-        <v>0.06154581394168308</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>6.61940000434991</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N19">
-        <v>6.61940000434991</v>
+        <v>0.14758</v>
       </c>
       <c r="O19">
-        <v>0.1665798875949634</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P19">
-        <v>0.1665798875949634</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q19">
-        <v>8.934036643939478</v>
+        <v>0.10647483776</v>
       </c>
       <c r="R19">
-        <v>8.934036643939478</v>
+        <v>0.9582735398399999</v>
       </c>
       <c r="S19">
-        <v>0.0102522947683461</v>
+        <v>0.000111376205930433</v>
       </c>
       <c r="T19">
-        <v>0.0102522947683461</v>
+        <v>0.000111376205930433</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.34967468925711</v>
+        <v>2.164416</v>
       </c>
       <c r="H20">
-        <v>1.34967468925711</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I20">
-        <v>0.06154581394168308</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J20">
-        <v>0.06154581394168308</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.105794767457187</v>
+        <v>0.106491</v>
       </c>
       <c r="N20">
-        <v>0.105794767457187</v>
+        <v>0.319473</v>
       </c>
       <c r="O20">
-        <v>0.002662368259898546</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P20">
-        <v>0.002662368259898546</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q20">
-        <v>0.1427885198928071</v>
+        <v>0.230490824256</v>
       </c>
       <c r="R20">
-        <v>0.1427885198928071</v>
+        <v>2.074417418304</v>
       </c>
       <c r="S20">
-        <v>0.0001638576215679585</v>
+        <v>0.0002411010342676055</v>
       </c>
       <c r="T20">
-        <v>0.0001638576215679585</v>
+        <v>0.0002411010342676056</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.34967468925711</v>
+        <v>2.164416</v>
       </c>
       <c r="H21">
-        <v>1.34967468925711</v>
+        <v>6.493247999999999</v>
       </c>
       <c r="I21">
-        <v>0.06154581394168308</v>
+        <v>0.0930584621579383</v>
       </c>
       <c r="J21">
-        <v>0.06154581394168308</v>
+        <v>0.09305846215793831</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.5139884018581</v>
+        <v>30.399472</v>
       </c>
       <c r="N21">
-        <v>29.5139884018581</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O21">
-        <v>0.7427314963938968</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P21">
-        <v>0.7427314963938968</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q21">
-        <v>39.83428312501578</v>
+        <v>65.797103588352</v>
       </c>
       <c r="R21">
-        <v>39.83428312501578</v>
+        <v>592.173932295168</v>
       </c>
       <c r="S21">
-        <v>0.04571201448568663</v>
+        <v>0.06882594905099129</v>
       </c>
       <c r="T21">
-        <v>0.04571201448568663</v>
+        <v>0.06882594905099131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.512380666666667</v>
+      </c>
+      <c r="H22">
+        <v>4.537142</v>
+      </c>
+      <c r="I22">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="J22">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.884573333333333</v>
+      </c>
+      <c r="N22">
+        <v>11.65372</v>
+      </c>
+      <c r="O22">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="P22">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="Q22">
+        <v>5.874953607582223</v>
+      </c>
+      <c r="R22">
+        <v>52.87458246824</v>
+      </c>
+      <c r="S22">
+        <v>0.006145396007127176</v>
+      </c>
+      <c r="T22">
+        <v>0.006145396007127176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.512380666666667</v>
+      </c>
+      <c r="H23">
+        <v>4.537142</v>
+      </c>
+      <c r="I23">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="J23">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.662909</v>
+      </c>
+      <c r="N23">
+        <v>19.988727</v>
+      </c>
+      <c r="O23">
+        <v>0.1621041669376684</v>
+      </c>
+      <c r="P23">
+        <v>0.1621041669376685</v>
+      </c>
+      <c r="Q23">
+        <v>10.07685475535934</v>
+      </c>
+      <c r="R23">
+        <v>90.691692798234</v>
+      </c>
+      <c r="S23">
+        <v>0.01054072374257792</v>
+      </c>
+      <c r="T23">
+        <v>0.01054072374257792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.512380666666667</v>
+      </c>
+      <c r="H24">
+        <v>4.537142</v>
+      </c>
+      <c r="I24">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="J24">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.04919333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.14758</v>
+      </c>
+      <c r="O24">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="P24">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="Q24">
+        <v>0.07439904626222223</v>
+      </c>
+      <c r="R24">
+        <v>0.66959141636</v>
+      </c>
+      <c r="S24">
+        <v>7.782386591850745E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.782386591850745E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.512380666666667</v>
+      </c>
+      <c r="H25">
+        <v>4.537142</v>
+      </c>
+      <c r="I25">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="J25">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.106491</v>
+      </c>
+      <c r="N25">
+        <v>0.319473</v>
+      </c>
+      <c r="O25">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="P25">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="Q25">
+        <v>0.161054929574</v>
+      </c>
+      <c r="R25">
+        <v>1.449494366166</v>
+      </c>
+      <c r="S25">
+        <v>0.000168468789243687</v>
+      </c>
+      <c r="T25">
+        <v>0.0001684687892436871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.512380666666667</v>
+      </c>
+      <c r="H26">
+        <v>4.537142</v>
+      </c>
+      <c r="I26">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="J26">
+        <v>0.0650243848859912</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>30.399472</v>
+      </c>
+      <c r="N26">
+        <v>91.19841600000001</v>
+      </c>
+      <c r="O26">
+        <v>0.7395990375832805</v>
+      </c>
+      <c r="P26">
+        <v>0.7395990375832806</v>
+      </c>
+      <c r="Q26">
+        <v>45.97557372967468</v>
+      </c>
+      <c r="R26">
+        <v>413.7801635670721</v>
+      </c>
+      <c r="S26">
+        <v>0.0480919724811239</v>
+      </c>
+      <c r="T26">
+        <v>0.04809197248112391</v>
       </c>
     </row>
   </sheetData>
